--- a/biology/Origine et évolution du vivant/Lithodes_turritus/Lithodes_turritus.xlsx
+++ b/biology/Origine et évolution du vivant/Lithodes_turritus/Lithodes_turritus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lithodes turritus est une espèce de crustacés appartenant à la famille des « crabes royaux », bien qu'ils n'appartiennent pas à la famille des crabes à proprement parler et sont plus proches des bernard-l'hermite.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et mode de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve principalement Lithodes turritus dans les eaux du Pacifique Ouest, de la mer de Chine[1], aux Philippines[2] ou au large des côtes australiennes[3]. Lithodes turritus est également le premier spécimen de la famille des Lithodidae à avoir été repéré dans les eaux de Taïwan[1]. On retrouve les Lithodes turritus à des profondeurs relativement profondes, de 400 à 800m, sur des fonds rocheux, coralliens ou vaseux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve principalement Lithodes turritus dans les eaux du Pacifique Ouest, de la mer de Chine, aux Philippines ou au large des côtes australiennes. Lithodes turritus est également le premier spécimen de la famille des Lithodidae à avoir été repéré dans les eaux de Taïwan. On retrouve les Lithodes turritus à des profondeurs relativement profondes, de 400 à 800m, sur des fonds rocheux, coralliens ou vaseux.
 Comme la plupart des décapodes, Lithodes turritus est principalement prédateur et détritivore.
 </t>
         </is>
@@ -543,12 +557,14 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Lithodes turritus présentent une carapace, triangulaire et légèrement voûtée, de couleur rougeâtre, et hérissée de piques. La partie ventrale est légèrement plus rosée. Le rostre de ces lithodes est assez long, tandis que les antennes et antennules sont peu développées. Comme chez la plupart des membres de la famille des Lithodes, les pattes articulées de Lithodes turritus sont très longues et présentent également des pointes. La taille moyenne des Lithodes turritus est d'environ 1 mètre 50 centimètres sur 1 mètre 50 centimètres. Les mâles sont en général plus volumineux que les femelles[1]. La première paire de pattes motrices est plus courte que les autres[4].
-Selon la taille des spécimens, la taille des pointes sur la carapace ou les péréiopodes est variable et sans corrélation, des petits individus possédants de grandes épines tandis que des grands individus peuvent présenter des épines plus courtes[1].  De plus, comme chez la plupart des Lithodes, la 5e paire de péréiopodes n'est pas utilisée pour la locomotion, mais plutôt pour nettoyer la carapace, les branchies et pour le transfert de spermatozoïdes[5].
-Cette espèce présente de nombreuses similitudes avec une espèce cousine, Lithodes longispina, les principales différences étant l'incurvation de la carapace, du rostre et le nombre de pointes au niveau du cœur[1]. Il est néanmoins beaucoup plus difficile de mettre en œuvre cette différence sur des juvéniles des deux espèces[6].
-Des études poussées sur les tissus hépatiques et pancréatiques de Lithodes turritus démontrent qu'ils sont principalement constitués de pristane et d'alcanes[7], ainsi qu'une forte présence d’hydrocarbures (il subsiste néanmoins un doute, la présence d'hydrocarbures pouvant être expliquée par la pollution en mer de Chine)[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Lithodes turritus présentent une carapace, triangulaire et légèrement voûtée, de couleur rougeâtre, et hérissée de piques. La partie ventrale est légèrement plus rosée. Le rostre de ces lithodes est assez long, tandis que les antennes et antennules sont peu développées. Comme chez la plupart des membres de la famille des Lithodes, les pattes articulées de Lithodes turritus sont très longues et présentent également des pointes. La taille moyenne des Lithodes turritus est d'environ 1 mètre 50 centimètres sur 1 mètre 50 centimètres. Les mâles sont en général plus volumineux que les femelles. La première paire de pattes motrices est plus courte que les autres.
+Selon la taille des spécimens, la taille des pointes sur la carapace ou les péréiopodes est variable et sans corrélation, des petits individus possédants de grandes épines tandis que des grands individus peuvent présenter des épines plus courtes.  De plus, comme chez la plupart des Lithodes, la 5e paire de péréiopodes n'est pas utilisée pour la locomotion, mais plutôt pour nettoyer la carapace, les branchies et pour le transfert de spermatozoïdes.
+Cette espèce présente de nombreuses similitudes avec une espèce cousine, Lithodes longispina, les principales différences étant l'incurvation de la carapace, du rostre et le nombre de pointes au niveau du cœur. Il est néanmoins beaucoup plus difficile de mettre en œuvre cette différence sur des juvéniles des deux espèces.
+Des études poussées sur les tissus hépatiques et pancréatiques de Lithodes turritus démontrent qu'ils sont principalement constitués de pristane et d'alcanes, ainsi qu'une forte présence d’hydrocarbures (il subsiste néanmoins un doute, la présence d'hydrocarbures pouvant être expliquée par la pollution en mer de Chine).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour la plupart des décapodes, les œufs des lithodes se déposent sur les fonds marins avant d'éclore et, après des séries de mues successives, deviennent des lithodes adultes.
 </t>
@@ -608,9 +626,11 @@
           <t>Pêche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lithodes turritus est considérée comme potentiellement apte à l'exploitation de pêche[9], mais ne présente en réalité que peu d’intérêt, les rendements étant trop faibles et aléatoires[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lithodes turritus est considérée comme potentiellement apte à l'exploitation de pêche, mais ne présente en réalité que peu d’intérêt, les rendements étant trop faibles et aléatoires.
 </t>
         </is>
       </c>
